--- a/GenerateApp/tables/Data/4/source.xlsx
+++ b/GenerateApp/tables/Data/4/source.xlsx
@@ -57,7 +57,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="1"/>
+  <style val="6"/>
   <chart>
     <title>
       <tx>
@@ -96,12 +96,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$1:$A$5</f>
+              <f>'Sheet1'!$A$1:$A$13</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$1:$B$5</f>
+              <f>'Sheet1'!$B$1:$B$13</f>
             </numRef>
           </val>
         </ser>
@@ -487,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,51 +498,131 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>McDonald's Corp.</t>
+          <t>Simon Property Group Inc</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>399</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Acuity Brands Inc</t>
+          <t>AMETEK Inc.</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>428</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Take-Two Interactive</t>
+          <t>Agilent Technologies Inc</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>774</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sempra Energy</t>
+          <t>Autodesk Inc.</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>751</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Republic Services Inc</t>
+          <t>TripAdvisor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>806</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cabot Oil &amp; Gas</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>U.S. Bancorp</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Accenture plc</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Noble Energy Inc</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lennar Corp.</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Delta Air Lines Inc.</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pulte Homes Inc.</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>631</v>
       </c>
     </row>
   </sheetData>
